--- a/AzureEnv-mc-fta.xlsx
+++ b/AzureEnv-mc-fta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allenk\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C5870D9-2FE2-49B5-9810-7F91A55F2C0E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C541C93B-C03A-42B1-94B9-0E0A5DF0DB01}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30528" windowHeight="13800" activeTab="2" xr2:uid="{09796E40-FEC8-4678-B636-BC32BCEC3D0F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25896" windowHeight="8760" activeTab="6" xr2:uid="{09796E40-FEC8-4678-B636-BC32BCEC3D0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Name" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="315">
   <si>
     <t>ResourceGroup</t>
   </si>
@@ -924,12 +924,6 @@
     <t>mc-rg-fta-vm</t>
   </si>
   <si>
-    <t>mc-rg-iac-data</t>
-  </si>
-  <si>
-    <t>application service</t>
-  </si>
-  <si>
     <t>mc-kv-fta</t>
   </si>
   <si>
@@ -1006,6 +1000,9 @@
   </si>
   <si>
     <t>allenk_automation_linux</t>
+  </si>
+  <si>
+    <t>mc-rg-fta-data</t>
   </si>
 </sst>
 </file>
@@ -2597,10 +2594,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B2EED0-F8A3-4EAB-A0E2-E8FB8977E89E}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2645,7 +2642,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>31</v>
@@ -2654,18 +2651,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="29" customFormat="1">
-      <c r="A5" s="31" t="s">
-        <v>288</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="11" customFormat="1"/>
+    <row r="8" spans="1:3" s="11" customFormat="1"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{1885BC1C-48C1-4423-ABA0-034E31BD2799}">
@@ -2682,7 +2668,7 @@
           <x14:formula1>
             <xm:f>'Properties List'!$D:$D</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B5</xm:sqref>
+          <xm:sqref>B2:B4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2694,8 +2680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65437506-71EE-4623-BA3E-4F0661C58DED}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2789,7 +2775,7 @@
         <v>165</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="3"/>
@@ -2853,7 +2839,7 @@
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="D9" s="27" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E9" s="27" t="s">
         <v>228</v>
@@ -2875,7 +2861,7 @@
     <row r="10" spans="1:15" s="11" customFormat="1">
       <c r="C10" s="29"/>
       <c r="D10" s="27" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E10" s="27" t="s">
         <v>18</v>
@@ -2896,10 +2882,10 @@
     </row>
     <row r="11" spans="1:15" s="29" customFormat="1">
       <c r="D11" s="27" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F11" s="28" t="s">
         <v>261</v>
@@ -2918,10 +2904,10 @@
     <row r="12" spans="1:15" s="11" customFormat="1">
       <c r="C12" s="29"/>
       <c r="D12" s="27" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F12" s="28" t="s">
         <v>229</v>
@@ -2956,7 +2942,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="K14" s="14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>214</v>
@@ -2969,7 +2955,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="K15" s="30" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>215</v>
@@ -2982,7 +2968,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="K16" s="30" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>216</v>
@@ -3073,7 +3059,7 @@
         <v>165</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -3116,7 +3102,7 @@
     </row>
     <row r="9" spans="1:6" s="11" customFormat="1">
       <c r="C9" s="14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>5</v>
@@ -3128,7 +3114,7 @@
     </row>
     <row r="10" spans="1:6" s="11" customFormat="1">
       <c r="C10" s="30" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>6</v>
@@ -3140,7 +3126,7 @@
     </row>
     <row r="11" spans="1:6" s="11" customFormat="1">
       <c r="C11" s="30" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>7</v>
@@ -3152,7 +3138,7 @@
     </row>
     <row r="12" spans="1:6" s="11" customFormat="1">
       <c r="C12" s="30" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>104</v>
@@ -3164,7 +3150,7 @@
     </row>
     <row r="13" spans="1:6" s="11" customFormat="1">
       <c r="C13" s="30" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>170</v>
@@ -3176,7 +3162,7 @@
     </row>
     <row r="14" spans="1:6" s="11" customFormat="1">
       <c r="C14" s="30" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>10</v>
@@ -3188,7 +3174,7 @@
     </row>
     <row r="15" spans="1:6" s="11" customFormat="1">
       <c r="C15" s="30" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>11</v>
@@ -3200,10 +3186,10 @@
     </row>
     <row r="16" spans="1:6" s="11" customFormat="1">
       <c r="C16" s="30" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>179</v>
@@ -3212,31 +3198,31 @@
     </row>
     <row r="17" spans="1:6" s="29" customFormat="1">
       <c r="C17" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="13" t="s">
         <v>293</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>295</v>
       </c>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" s="29" customFormat="1">
       <c r="C18" s="30" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D18" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>294</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>296</v>
       </c>
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6">
       <c r="C19" s="30" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>13</v>
@@ -3248,7 +3234,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="C20" s="30" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>14</v>
@@ -3290,7 +3276,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3405,7 +3391,7 @@
         <v>165</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C4" s="3"/>
       <c r="M4" s="29"/>
@@ -3454,7 +3440,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="C7" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>138</v>
@@ -3487,7 +3473,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="C8" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>160</v>
@@ -3520,7 +3506,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="C9" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>161</v>
@@ -3553,10 +3539,10 @@
     </row>
     <row r="10" spans="1:17" s="29" customFormat="1">
       <c r="C10" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>74</v>
@@ -3586,10 +3572,10 @@
     </row>
     <row r="11" spans="1:17" s="29" customFormat="1">
       <c r="C11" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>74</v>
@@ -3634,13 +3620,13 @@
     <row r="13" spans="1:17" s="11" customFormat="1">
       <c r="M13" s="29"/>
       <c r="N13" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O13" s="13" t="s">
         <v>286</v>
       </c>
       <c r="P13" s="13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Q13" s="13" t="s">
         <v>6</v>
@@ -3684,7 +3670,7 @@
         <v>165</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C16" s="3"/>
       <c r="M16" s="29"/>
@@ -3733,7 +3719,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="C19" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>164</v>
@@ -3766,7 +3752,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="C20" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>162</v>
@@ -3799,7 +3785,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="C21" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>163</v>
@@ -3832,7 +3818,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="C22" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>138</v>
@@ -3892,13 +3878,13 @@
     </row>
     <row r="25" spans="1:17">
       <c r="N25" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O25" s="13" t="s">
         <v>286</v>
       </c>
       <c r="P25" s="13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Q25" s="13" t="s">
         <v>171</v>
@@ -3950,8 +3936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71DACD7-923E-41EE-A168-21177D0CC449}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4057,7 +4043,7 @@
         <v>165</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -4091,10 +4077,10 @@
     </row>
     <row r="7" spans="1:18">
       <c r="C7" s="14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>4</v>
@@ -4106,15 +4092,15 @@
         <v>81</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="C8" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>299</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>301</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>191</v>
@@ -4126,7 +4112,7 @@
         <v>81</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -4145,13 +4131,13 @@
     </row>
     <row r="10" spans="1:18">
       <c r="I10" s="14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>286</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L10" s="13" t="s">
         <v>194</v>
@@ -4312,7 +4298,7 @@
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="7" t="s">
@@ -4325,7 +4311,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G2" s="36">
         <v>1</v>
@@ -4337,23 +4323,23 @@
         <v>24</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>286</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>18</v>
@@ -4362,7 +4348,7 @@
         <v>286</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>214</v>
@@ -4373,7 +4359,7 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="7" t="s">
@@ -4386,7 +4372,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G3" s="36">
         <v>1</v>
@@ -4402,19 +4388,19 @@
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M3" s="13" t="s">
         <v>286</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>18</v>
@@ -4423,7 +4409,7 @@
         <v>286</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>214</v>

--- a/AzureEnv-mc-fta.xlsx
+++ b/AzureEnv-mc-fta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allenk\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C541C93B-C03A-42B1-94B9-0E0A5DF0DB01}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97C001D8-C7C5-43F1-821F-8288DE075940}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25896" windowHeight="8760" activeTab="6" xr2:uid="{09796E40-FEC8-4678-B636-BC32BCEC3D0F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="13800" activeTab="4" xr2:uid="{09796E40-FEC8-4678-B636-BC32BCEC3D0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Name" sheetId="9" r:id="rId1"/>
@@ -94,9 +94,6 @@
     <t>10.0.3.0/24</t>
   </si>
   <si>
-    <t>10.0.200.0/24</t>
-  </si>
-  <si>
     <t>allenk</t>
   </si>
   <si>
@@ -1003,6 +1000,9 @@
   </si>
   <si>
     <t>mc-rg-fta-data</t>
+  </si>
+  <si>
+    <t>10.1.200.0/24</t>
   </si>
 </sst>
 </file>
@@ -1615,148 +1615,148 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="C5" s="20" t="s">
         <v>88</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="11" customFormat="1"/>
     <row r="7" spans="1:3">
       <c r="A7" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>96</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>97</v>
       </c>
       <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="21"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="21"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="21"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>94</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>95</v>
       </c>
       <c r="C12" s="21"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>98</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>99</v>
       </c>
       <c r="C13" s="21"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>100</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>101</v>
       </c>
       <c r="C14" s="21"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>102</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>103</v>
       </c>
       <c r="C15" s="21"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>104</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>105</v>
       </c>
       <c r="C16" s="21"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>106</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>107</v>
       </c>
       <c r="C17" s="21"/>
     </row>
@@ -1768,17 +1768,17 @@
     <row r="19" spans="1:3" s="11" customFormat="1"/>
     <row r="20" spans="1:3">
       <c r="A20" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>111</v>
       </c>
       <c r="C21" s="22"/>
     </row>
@@ -1792,7 +1792,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1800,7 +1800,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1808,7 +1808,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1816,7 +1816,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1824,7 +1824,7 @@
         <v>5</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1876,57 +1876,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>248</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>249</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="F1" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="F1" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="G1" s="30" t="s">
+      <c r="H1" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="K1" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="H1" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="K1" s="30" t="s">
+      <c r="L1" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="M1" s="30" t="s">
         <v>254</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E2" s="29">
         <v>5.7</v>
@@ -1935,39 +1935,39 @@
         <v>1</v>
       </c>
       <c r="G2" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="L2" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="H2" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>257</v>
-      </c>
-      <c r="L2" s="29" t="s">
+      <c r="M2" s="29" t="s">
         <v>246</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="29" customFormat="1">
       <c r="A3" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E3" s="29">
         <v>5.7</v>
@@ -1976,39 +1976,39 @@
         <v>1</v>
       </c>
       <c r="G3" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="L3" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="H3" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="L3" s="29" t="s">
+      <c r="M3" s="29" t="s">
         <v>246</v>
-      </c>
-      <c r="M3" s="29" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="29" customFormat="1">
       <c r="A4" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E4" s="29">
         <v>5.7</v>
@@ -2017,25 +2017,25 @@
         <v>1</v>
       </c>
       <c r="G4" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="L4" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="H4" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="J4" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="L4" s="29" t="s">
+      <c r="M4" s="29" t="s">
         <v>246</v>
-      </c>
-      <c r="M4" s="29" t="s">
-        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2071,46 +2071,46 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="C1" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="D1" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="E1" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="F1" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="G1" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="J1" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="G1" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="J1" s="30" t="s">
+      <c r="K1" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="L1" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="M1" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="N1" s="30" t="s">
         <v>205</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>206</v>
       </c>
       <c r="O1" s="30" t="s">
         <v>2</v>
@@ -2118,136 +2118,136 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="F2" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="G2" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="K2" s="13" t="s">
+      <c r="L2" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="M2" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="N2" s="13" t="s">
         <v>211</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>212</v>
       </c>
       <c r="O2" s="13"/>
     </row>
     <row r="3" spans="1:15" s="11" customFormat="1">
       <c r="A3" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="G3" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="K3" s="13" t="s">
+      <c r="L3" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="M3" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>211</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>212</v>
       </c>
       <c r="O3" s="13"/>
     </row>
     <row r="4" spans="1:15" s="11" customFormat="1">
       <c r="A4" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="F4" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="G4" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="K4" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="K4" s="13" t="s">
+      <c r="L4" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="M4" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="N4" s="13" t="s">
         <v>211</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>212</v>
       </c>
       <c r="O4" s="13"/>
     </row>
@@ -2280,10 +2280,10 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>3</v>
@@ -2292,25 +2292,25 @@
         <v>1</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -2318,67 +2318,67 @@
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>6</v>
@@ -2386,22 +2386,22 @@
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>7</v>
@@ -2409,16 +2409,16 @@
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="13"/>
       <c r="B6" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>8</v>
@@ -2430,7 +2430,7 @@
     <row r="7" spans="1:11">
       <c r="A7" s="13"/>
       <c r="B7" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>9</v>
@@ -2442,7 +2442,7 @@
     <row r="8" spans="1:11">
       <c r="A8" s="13"/>
       <c r="B8" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>10</v>
@@ -2454,7 +2454,7 @@
     <row r="9" spans="1:11">
       <c r="A9" s="13"/>
       <c r="B9" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>11</v>
@@ -2522,62 +2522,62 @@
   <sheetData>
     <row r="1" spans="1:6" s="11" customFormat="1">
       <c r="A1" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="E2" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="11" customFormat="1">
       <c r="A3" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>184</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="11" customFormat="1">
@@ -2609,7 +2609,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
@@ -2620,35 +2620,35 @@
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="11" customFormat="1"/>
@@ -2705,66 +2705,66 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="J1" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="J1" s="30" t="s">
+      <c r="K1" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="O1" s="24" t="s">
         <v>272</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="N1" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="O1" s="24" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="11"/>
@@ -2772,10 +2772,10 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="3"/>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="5" spans="1:15" s="11" customFormat="1">
       <c r="A5" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B5" s="7" t="b">
         <v>1</v>
@@ -2794,7 +2794,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B6" s="7" t="b">
         <v>1</v>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B7" s="7" t="b">
         <v>1</v>
@@ -2814,167 +2814,167 @@
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="D8" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="G8" s="14" t="s">
+      <c r="H8" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="I8" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>224</v>
-      </c>
       <c r="J8" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="86.4">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="D9" s="27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G9" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="H9" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="I9" s="26" t="s">
         <v>233</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>234</v>
       </c>
       <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:15" s="11" customFormat="1">
       <c r="C10" s="29"/>
       <c r="D10" s="27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:15" s="29" customFormat="1">
       <c r="D11" s="27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:15" s="11" customFormat="1">
       <c r="C12" s="29"/>
       <c r="D12" s="27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:15">
       <c r="K13" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N13" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O13" s="30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="K14" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
     </row>
     <row r="15" spans="1:15">
       <c r="K15" s="30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
     </row>
     <row r="16" spans="1:15">
       <c r="K16" s="30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
@@ -3001,8 +3001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66F6C2E-1DAB-4048-8E28-1F02F50FBD7B}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3017,30 +3017,30 @@
   <sheetData>
     <row r="1" spans="1:6" s="11" customFormat="1">
       <c r="A1" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="11" customFormat="1">
       <c r="A2" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
@@ -3048,199 +3048,199 @@
     </row>
     <row r="3" spans="1:6" s="11" customFormat="1">
       <c r="A3" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="11" customFormat="1">
       <c r="A4" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:6" s="11" customFormat="1">
       <c r="A5" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:6" s="11" customFormat="1">
       <c r="A6" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:6" s="29" customFormat="1">
       <c r="A7" s="30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:6" s="11" customFormat="1">
       <c r="C8" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="11" customFormat="1">
       <c r="C9" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" s="11" customFormat="1">
       <c r="C10" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" s="11" customFormat="1">
       <c r="C11" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" s="11" customFormat="1">
       <c r="C12" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" s="11" customFormat="1">
       <c r="C13" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" s="11" customFormat="1">
       <c r="C14" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" s="11" customFormat="1">
       <c r="C15" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" s="11" customFormat="1">
       <c r="C16" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>290</v>
-      </c>
       <c r="E16" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" s="29" customFormat="1">
       <c r="C17" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" s="29" customFormat="1">
       <c r="C18" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6">
       <c r="C19" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6">
       <c r="C20" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>17</v>
+        <v>314</v>
       </c>
       <c r="F20" s="13"/>
     </row>
@@ -3302,63 +3302,63 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="M1" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="N1" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>167</v>
-      </c>
       <c r="O1" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P1" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q1" s="30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
@@ -3378,255 +3378,255 @@
     </row>
     <row r="3" spans="1:17" s="11" customFormat="1">
       <c r="A3" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3"/>
       <c r="M3" s="29"/>
     </row>
     <row r="4" spans="1:17" s="11" customFormat="1">
       <c r="A4" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C4" s="3"/>
       <c r="M4" s="29"/>
     </row>
     <row r="5" spans="1:17" s="29" customFormat="1">
       <c r="A5" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:17">
       <c r="C6" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="M6" s="30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="C7" s="30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K7" s="8">
         <v>200</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:17">
       <c r="C8" s="30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I8" s="8">
         <v>443</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K8" s="8">
         <v>100</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:17">
       <c r="C9" s="30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I9" s="8">
         <v>80</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K9" s="8">
         <v>110</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:17" s="29" customFormat="1">
       <c r="C10" s="30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I10" s="8">
         <v>3389</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K10" s="8">
         <v>120</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:17" s="29" customFormat="1">
       <c r="C11" s="30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I11" s="8">
         <v>22</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K11" s="8">
         <v>130</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:17">
       <c r="N12" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q12" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="11" customFormat="1">
       <c r="M13" s="29"/>
       <c r="N13" s="30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P13" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q13" s="13" t="s">
         <v>6</v>
@@ -3634,10 +3634,10 @@
     </row>
     <row r="14" spans="1:17" s="11" customFormat="1">
       <c r="A14" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
@@ -3660,192 +3660,192 @@
         <v>1</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="3"/>
       <c r="M15" s="29"/>
     </row>
     <row r="16" spans="1:17" s="11" customFormat="1">
       <c r="A16" s="30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C16" s="3"/>
       <c r="M16" s="29"/>
     </row>
     <row r="17" spans="1:17" s="29" customFormat="1">
       <c r="A17" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:17">
       <c r="C18" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E18" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="G18" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="H18" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="I18" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="J18" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="K18" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="L18" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="K18" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>145</v>
-      </c>
       <c r="M18" s="30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="C19" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I19" s="8">
         <v>1433</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K19" s="8">
         <v>100</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:17">
       <c r="C20" s="30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K20" s="8">
         <v>200</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:17">
       <c r="C21" s="30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K21" s="8">
         <v>210</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:17">
       <c r="C22" s="30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K22" s="8">
         <v>200</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M22" s="8"/>
     </row>
@@ -3864,30 +3864,30 @@
     </row>
     <row r="24" spans="1:17">
       <c r="N24" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P24" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q24" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="N25" s="30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O25" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P25" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q25" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3936,7 +3936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71DACD7-923E-41EE-A168-21177D0CC449}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -3958,66 +3958,66 @@
   <sheetData>
     <row r="1" spans="1:18" s="11" customFormat="1">
       <c r="A1" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="H1" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>285</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>275</v>
-      </c>
       <c r="I1" s="30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="11" customFormat="1">
       <c r="A2" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
@@ -4032,24 +4032,24 @@
     </row>
     <row r="3" spans="1:18" s="11" customFormat="1">
       <c r="A3" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="11" customFormat="1">
       <c r="A4" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:18" s="29" customFormat="1">
       <c r="A5" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="3"/>
@@ -4057,90 +4057,90 @@
     <row r="6" spans="1:18" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="12"/>
       <c r="C6" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="C7" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>297</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>298</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="C8" s="30" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="I9" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K9" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="I10" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -4227,7 +4227,7 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -4236,73 +4236,73 @@
         <v>0</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="R1" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="T1" s="6" t="s">
-        <v>268</v>
-      </c>
       <c r="U1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D2" s="2">
         <v>2</v>
@@ -4311,7 +4311,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G2" s="36">
         <v>1</v>
@@ -4320,38 +4320,38 @@
         <v>31</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -4359,11 +4359,11 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D3" s="2">
         <v>3</v>
@@ -4372,7 +4372,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G3" s="36">
         <v>1</v>
@@ -4381,38 +4381,38 @@
         <v>127</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
@@ -4496,58 +4496,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -4555,26 +4555,26 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -4582,45 +4582,45 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="C4" s="7">
         <v>5</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="C6" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6" s="7">
         <v>80</v>
@@ -4632,16 +4632,16 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>12</v>
@@ -4650,42 +4650,42 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="14.4" customHeight="1">
       <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="C9" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/AzureEnv-mc-fta.xlsx
+++ b/AzureEnv-mc-fta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allenk\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97C001D8-C7C5-43F1-821F-8288DE075940}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1C74BF1-7AC3-4093-9D90-33811BDD9FA0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="13800" activeTab="4" xr2:uid="{09796E40-FEC8-4678-B636-BC32BCEC3D0F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="13800" activeTab="11" xr2:uid="{09796E40-FEC8-4678-B636-BC32BCEC3D0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Name" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="312">
   <si>
     <t>ResourceGroup</t>
   </si>
@@ -383,9 +383,6 @@
   </si>
   <si>
     <t>mc-rg-iac-sf</t>
-  </si>
-  <si>
-    <t>mc-rg-iac-db</t>
   </si>
   <si>
     <t>use lower case</t>
@@ -780,15 +777,6 @@
     <t>mc-sql-iac-server</t>
   </si>
   <si>
-    <t>mc-sql-iac-db-01</t>
-  </si>
-  <si>
-    <t>mc-sql-iac-db-02</t>
-  </si>
-  <si>
-    <t>mc-sql-iac-db-03</t>
-  </si>
-  <si>
     <t>MS1</t>
   </si>
   <si>
@@ -828,9 +816,6 @@
     <t>Allow Azure internal Access</t>
   </si>
   <si>
-    <t>mc-mysql-iac-db1</t>
-  </si>
-  <si>
     <t>KeyVaultRG</t>
   </si>
   <si>
@@ -846,15 +831,6 @@
     <t>mc-mysql-iac-svr1</t>
   </si>
   <si>
-    <t>mc-mysql-iac-svr2</t>
-  </si>
-  <si>
-    <t>mc-mysql-iac-db2</t>
-  </si>
-  <si>
-    <t>mc-mysql-iac-db3</t>
-  </si>
-  <si>
     <t>keyvaultRG</t>
   </si>
   <si>
@@ -1003,6 +979,21 @@
   </si>
   <si>
     <t>10.1.200.0/24</t>
+  </si>
+  <si>
+    <t>mc-mysql-fta-db1</t>
+  </si>
+  <si>
+    <t>mc-mysql-fta-db2</t>
+  </si>
+  <si>
+    <t>mc-sql-fta-db-01</t>
+  </si>
+  <si>
+    <t>mc-sql-fta-db-02</t>
+  </si>
+  <si>
+    <t>mc-sql-fta-db-03</t>
   </si>
 </sst>
 </file>
@@ -1602,7 +1593,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1792,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1800,7 +1791,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1808,7 +1799,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1816,7 +1807,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1824,7 +1815,7 @@
         <v>5</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1853,10 +1844,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD3BF6B-20D9-4585-8ED8-1463BB7E1471}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1876,57 +1867,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="30" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="L1" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="M1" s="30" t="s">
         <v>250</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>255</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>253</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="31" t="s">
-        <v>114</v>
+        <v>305</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E2" s="29">
         <v>5.7</v>
@@ -1935,39 +1926,39 @@
         <v>1</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>112</v>
+        <v>277</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>225</v>
+        <v>279</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="29" customFormat="1">
       <c r="A3" s="31" t="s">
-        <v>114</v>
+        <v>305</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E3" s="29">
         <v>5.7</v>
@@ -1976,66 +1967,25 @@
         <v>1</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>112</v>
+        <v>277</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>225</v>
+        <v>279</v>
       </c>
       <c r="J3" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M3" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="29" customFormat="1">
-      <c r="A4" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="E4" s="29">
-        <v>5.7</v>
-      </c>
-      <c r="F4" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="J4" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="L4" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="M4" s="29" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -2049,7 +1999,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2071,46 +2021,46 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="C1" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="D1" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="E1" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="F1" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="G1" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="J1" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="G1" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="J1" s="30" t="s">
+      <c r="K1" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="L1" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="M1" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="N1" s="30" t="s">
         <v>204</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>205</v>
       </c>
       <c r="O1" s="30" t="s">
         <v>2</v>
@@ -2118,136 +2068,136 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="31" t="s">
-        <v>114</v>
+        <v>305</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="G2" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="K2" s="13" t="s">
+      <c r="L2" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="M2" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="N2" s="13" t="s">
         <v>210</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>211</v>
       </c>
       <c r="O2" s="13"/>
     </row>
     <row r="3" spans="1:15" s="11" customFormat="1">
       <c r="A3" s="31" t="s">
-        <v>114</v>
+        <v>305</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="G3" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="K3" s="13" t="s">
+      <c r="L3" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="M3" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>210</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>211</v>
       </c>
       <c r="O3" s="13"/>
     </row>
     <row r="4" spans="1:15" s="11" customFormat="1">
       <c r="A4" s="31" t="s">
-        <v>114</v>
+        <v>305</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="F4" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="G4" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="K4" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="G4" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="K4" s="13" t="s">
+      <c r="L4" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="M4" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="N4" s="13" t="s">
         <v>210</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>211</v>
       </c>
       <c r="O4" s="13"/>
     </row>
@@ -2261,8 +2211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6043D2-FAF4-4CC6-BCA2-883A8FA8E76B}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2295,22 +2245,22 @@
         <v>79</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -2322,22 +2272,22 @@
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2345,7 +2295,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>5</v>
@@ -2355,22 +2305,22 @@
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2378,7 +2328,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>6</v>
@@ -2386,13 +2336,13 @@
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G4" s="25" t="s">
         <v>73</v>
       </c>
       <c r="I4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K4" s="7"/>
     </row>
@@ -2401,7 +2351,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>7</v>
@@ -2409,10 +2359,10 @@
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2430,7 +2380,7 @@
     <row r="7" spans="1:11">
       <c r="A7" s="13"/>
       <c r="B7" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>9</v>
@@ -2467,7 +2417,7 @@
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13" t="s">
-        <v>12</v>
+        <v>281</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -2522,62 +2472,62 @@
   <sheetData>
     <row r="1" spans="1:6" s="11" customFormat="1">
       <c r="A1" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="E2" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="11" customFormat="1">
       <c r="A3" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>183</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="11" customFormat="1">
@@ -2620,7 +2570,7 @@
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>30</v>
@@ -2631,7 +2581,7 @@
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>30</v>
@@ -2642,13 +2592,13 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="11" customFormat="1"/>
@@ -2708,46 +2658,46 @@
         <v>28</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="E1" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="G1" s="30" t="s">
+      <c r="H1" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="H1" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>223</v>
-      </c>
       <c r="J1" s="30" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="O1" s="24" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -2755,13 +2705,13 @@
         <v>32</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>30</v>
@@ -2772,10 +2722,10 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="3"/>
@@ -2783,7 +2733,7 @@
     </row>
     <row r="5" spans="1:15" s="11" customFormat="1">
       <c r="A5" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B5" s="7" t="b">
         <v>1</v>
@@ -2794,7 +2744,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B6" s="7" t="b">
         <v>1</v>
@@ -2803,7 +2753,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B7" s="7" t="b">
         <v>1</v>
@@ -2814,167 +2764,167 @@
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="D8" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="G8" s="14" t="s">
+      <c r="H8" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="I8" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>223</v>
-      </c>
       <c r="J8" s="30" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="86.4">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="D9" s="27" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G9" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="H9" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="I9" s="26" t="s">
         <v>232</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>233</v>
       </c>
       <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:15" s="11" customFormat="1">
       <c r="C10" s="29"/>
       <c r="D10" s="27" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E10" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:15" s="29" customFormat="1">
       <c r="D11" s="27" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:15" s="11" customFormat="1">
       <c r="C12" s="29"/>
       <c r="D12" s="27" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:15">
       <c r="K13" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N13" s="30" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="O13" s="30" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="K14" s="14" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
     </row>
     <row r="15" spans="1:15">
       <c r="K15" s="30" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
     </row>
     <row r="16" spans="1:15">
       <c r="K16" s="30" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
@@ -3001,8 +2951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66F6C2E-1DAB-4048-8E28-1F02F50FBD7B}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3020,19 +2970,19 @@
         <v>28</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="11" customFormat="1">
@@ -3040,7 +2990,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
@@ -3048,7 +2998,7 @@
     </row>
     <row r="3" spans="1:6" s="11" customFormat="1">
       <c r="A3" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>30</v>
@@ -3056,191 +3006,191 @@
     </row>
     <row r="4" spans="1:6" s="11" customFormat="1">
       <c r="A4" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:6" s="11" customFormat="1">
       <c r="A5" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:6" s="11" customFormat="1">
       <c r="A6" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:6" s="29" customFormat="1">
       <c r="A7" s="30" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:6" s="11" customFormat="1">
       <c r="C8" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="11" customFormat="1">
       <c r="C9" s="14" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" s="11" customFormat="1">
       <c r="C10" s="30" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" s="11" customFormat="1">
       <c r="C11" s="30" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" s="11" customFormat="1">
       <c r="C12" s="30" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>103</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" s="11" customFormat="1">
       <c r="C13" s="30" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" s="11" customFormat="1">
       <c r="C14" s="30" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" s="11" customFormat="1">
       <c r="C15" s="30" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" s="11" customFormat="1">
       <c r="C16" s="30" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" s="29" customFormat="1">
       <c r="C17" s="30" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" s="29" customFormat="1">
       <c r="C18" s="30" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6">
       <c r="C19" s="30" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6">
       <c r="C20" s="30" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="F20" s="13"/>
     </row>
@@ -3305,43 +3255,43 @@
         <v>28</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C1" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="N1" s="30" t="s">
         <v>165</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>166</v>
       </c>
       <c r="O1" s="30" t="s">
         <v>32</v>
@@ -3350,7 +3300,7 @@
         <v>67</v>
       </c>
       <c r="Q1" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3358,7 +3308,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
@@ -3378,7 +3328,7 @@
     </row>
     <row r="3" spans="1:17" s="11" customFormat="1">
       <c r="A3" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>30</v>
@@ -3388,224 +3338,224 @@
     </row>
     <row r="4" spans="1:17" s="11" customFormat="1">
       <c r="A4" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C4" s="3"/>
       <c r="M4" s="29"/>
     </row>
     <row r="5" spans="1:17" s="29" customFormat="1">
       <c r="A5" s="30" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:17">
       <c r="C6" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="M6" s="30" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="C7" s="30" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>73</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K7" s="8">
         <v>200</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:17">
       <c r="C8" s="30" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>73</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I8" s="8">
         <v>443</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K8" s="8">
         <v>100</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:17">
       <c r="C9" s="30" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>73</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I9" s="8">
         <v>80</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K9" s="8">
         <v>110</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:17" s="29" customFormat="1">
       <c r="C10" s="30" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>73</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I10" s="8">
         <v>3389</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K10" s="8">
         <v>120</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:17" s="29" customFormat="1">
       <c r="C11" s="30" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>73</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I11" s="8">
         <v>22</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K11" s="8">
         <v>130</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:17">
       <c r="N12" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O12" s="14" t="s">
         <v>32</v>
@@ -3614,19 +3564,19 @@
         <v>67</v>
       </c>
       <c r="Q12" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="11" customFormat="1">
       <c r="M13" s="29"/>
       <c r="N13" s="30" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="P13" s="13" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="Q13" s="13" t="s">
         <v>6</v>
@@ -3637,7 +3587,7 @@
         <v>32</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
@@ -3667,185 +3617,185 @@
     </row>
     <row r="16" spans="1:17" s="11" customFormat="1">
       <c r="A16" s="30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C16" s="3"/>
       <c r="M16" s="29"/>
     </row>
     <row r="17" spans="1:17" s="29" customFormat="1">
       <c r="A17" s="30" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:17">
       <c r="C18" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E18" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="G18" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="H18" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="I18" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="J18" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="K18" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="L18" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="K18" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>144</v>
-      </c>
       <c r="M18" s="30" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="C19" s="14" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I19" s="8">
         <v>1433</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K19" s="8">
         <v>100</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:17">
       <c r="C20" s="30" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K20" s="8">
         <v>200</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:17">
       <c r="C21" s="30" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K21" s="8">
         <v>210</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:17">
       <c r="C22" s="30" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>73</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K22" s="8">
         <v>200</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M22" s="8"/>
     </row>
@@ -3864,7 +3814,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="N24" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O24" s="14" t="s">
         <v>32</v>
@@ -3873,21 +3823,21 @@
         <v>67</v>
       </c>
       <c r="Q24" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="N25" s="30" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="O25" s="13" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="P25" s="13" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="Q25" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3961,28 +3911,28 @@
         <v>28</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J1" s="30" t="s">
         <v>32</v>
@@ -3991,7 +3941,7 @@
         <v>67</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>42</v>
@@ -4017,7 +3967,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
@@ -4032,7 +3982,7 @@
     </row>
     <row r="3" spans="1:18" s="11" customFormat="1">
       <c r="A3" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>30</v>
@@ -4040,16 +3990,16 @@
     </row>
     <row r="4" spans="1:18" s="11" customFormat="1">
       <c r="A4" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:18" s="29" customFormat="1">
       <c r="A5" s="30" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="3"/>
@@ -4057,30 +4007,30 @@
     <row r="6" spans="1:18" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="12"/>
       <c r="C6" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="C7" s="14" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>4</v>
@@ -4092,18 +4042,18 @@
         <v>80</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="C8" s="30" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>80</v>
@@ -4112,12 +4062,12 @@
         <v>80</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="I9" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J9" s="14" t="s">
         <v>32</v>
@@ -4126,21 +4076,21 @@
         <v>67</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="I10" s="14" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -4198,7 +4148,7 @@
   <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4239,16 +4189,16 @@
         <v>63</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>21</v>
@@ -4257,7 +4207,7 @@
         <v>65</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>66</v>
@@ -4278,13 +4228,13 @@
         <v>70</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="U1" s="6" t="s">
         <v>45</v>
@@ -4298,11 +4248,11 @@
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D2" s="2">
         <v>2</v>
@@ -4311,7 +4261,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G2" s="36">
         <v>1</v>
@@ -4323,35 +4273,35 @@
         <v>23</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="8" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -4359,11 +4309,11 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D3" s="2">
         <v>3</v>
@@ -4372,7 +4322,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G3" s="36">
         <v>1</v>
@@ -4388,31 +4338,31 @@
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="8" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
@@ -4481,7 +4431,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4574,7 +4524,7 @@
         <v>31</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -4604,7 +4554,7 @@
         <v>58</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>19</v>
@@ -4620,7 +4570,7 @@
         <v>52</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D6" s="7">
         <v>80</v>
@@ -4641,7 +4591,7 @@
         <v>112</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>12</v>
@@ -4653,7 +4603,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>17</v>
@@ -4662,10 +4612,10 @@
         <v>112</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="14.4" customHeight="1">
